--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712837.7145774766</v>
+        <v>743325.0962870761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12382462.23728436</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240761</v>
+        <v>5743063.98942222</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9692438.925652729</v>
+        <v>9691029.081544187</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>78.84160603668673</v>
       </c>
       <c r="X2" t="n">
-        <v>23.17105154807408</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705085</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773059</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.6225133949339</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -876,16 +876,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.781160222249863</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>98.14064499328911</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>288.9958981987189</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933859</v>
       </c>
       <c r="G6" t="n">
         <v>135.3343964518635</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>80.23930645615819</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>48.59762772625819</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.9925983982043</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>88.17240221468862</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>81.05685296471788</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>130.2807975769973</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>325.382462482122</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>144.626093306061</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>157.7822070347172</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>197.2316227012193</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>41.35684107511872</v>
+        <v>278.3199615710137</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369677</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>129.9415567268606</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>286.8517409876646</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>131.6653792309046</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>188.7797436784531</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>24.26938334575165</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>116.2516724938258</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>18.67884935746521</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>29.71145624902231</v>
       </c>
       <c r="C23" t="n">
-        <v>138.0957464459783</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>86.87391125748638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>282.7823572636611</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>183.797513663512</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.94871329109057</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>102.066035663877</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2851,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.9358886581347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>204.8429981867602</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>105.9626607935826</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>29.73730052683909</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.65913193862765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>92.01936427017841</v>
+        <v>116.56312750422</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>170.3113909232763</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369722</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>77.42639794035675</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>163.2704070622395</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.796569204138</v>
+        <v>179.0944876018814</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>79.49505480544842</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>97.28002421814141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>26.30878201733263</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951718</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>33.48310077427499</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>877.9374416333219</v>
+        <v>1564.612545557418</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>1195.650028617006</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.25053145306</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182946</v>
+        <v>1564.612545557418</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.076773609134</v>
+        <v>1564.612545557418</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.9374416333219</v>
+        <v>1564.612545557418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488056</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756906</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182527</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057973</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>560.1394111735144</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919909</v>
+        <v>884.9085321458224</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105043</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.52611487815</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676484</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>683.7982798220356</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020477</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>834.9321317361103</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X4" t="n">
-        <v>834.9321317361103</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="Y4" t="n">
-        <v>834.9321317361103</v>
+        <v>51.24678656800314</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>877.9374416333219</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C5" t="n">
-        <v>877.9374416333219</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362836</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816098</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087293</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923563</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.593687005982</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.50815628694</v>
+        <v>2353.593687005982</v>
       </c>
       <c r="V5" t="n">
-        <v>2007.445268943369</v>
+        <v>2061.678638320407</v>
       </c>
       <c r="W5" t="n">
-        <v>1654.676613673255</v>
+        <v>2061.678638320407</v>
       </c>
       <c r="X5" t="n">
-        <v>1654.676613673255</v>
+        <v>2061.678638320407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1264.537281697444</v>
+        <v>1671.539306344596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F6" t="n">
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500115</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429769</v>
+        <v>560.1394111735144</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744484</v>
+        <v>854.8429682049863</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761152</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.52611487815</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.02341329261</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676484</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.9787363064645</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="C7" t="n">
-        <v>664.9787363064645</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028471</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915105</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X7" t="n">
-        <v>846.6272011367042</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.6272011367042</v>
+        <v>281.0354892056668</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.597178657684</v>
+        <v>681.0854746196783</v>
       </c>
       <c r="C8" t="n">
-        <v>802.6346617172728</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="D8" t="n">
-        <v>444.3689631105223</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E8" t="n">
-        <v>355.3059305704328</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F8" t="n">
-        <v>355.3059305704328</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532449</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188878</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918764</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657684</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1171.597178657684</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694947</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.2533734782492</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1402.265948360789</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.147610864627</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>858.4631226587398</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>569.0459526217793</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>569.0459526217793</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.2533734782492</v>
+        <v>281.0354892056668</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.038871968308</v>
+        <v>1407.336024959089</v>
       </c>
       <c r="C11" t="n">
-        <v>909.3697179459625</v>
+        <v>1038.373508018677</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>1038.373508018677</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>481.3006402936545</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>586.364312131902</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.76462411127</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>2851.233165897976</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2520.170278554405</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269321</v>
+        <v>2167.401623284291</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008242</v>
+        <v>1793.935865023211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.63871203243</v>
+        <v>1793.935865023211</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951944</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183473</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.0708164780106</v>
+        <v>678.4248072139533</v>
       </c>
       <c r="C13" t="n">
-        <v>679.1346335501037</v>
+        <v>509.4886242860464</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>359.3719848737106</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>359.3719848737106</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>212.4820373758002</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>212.4820373758002</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="T13" t="n">
-        <v>1767.918581386758</v>
+        <v>1508.079263400103</v>
       </c>
       <c r="U13" t="n">
-        <v>1767.918581386758</v>
+        <v>1508.079263400103</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.918581386758</v>
+        <v>1308.85540208574</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.501411349798</v>
+        <v>1308.85540208574</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.51186045178</v>
+        <v>1080.865851187723</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.71928130825</v>
+        <v>860.073272044193</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
         <v>523.5814653477182</v>
@@ -5275,55 +5275,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V14" t="n">
-        <v>2866.09759726723</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W14" t="n">
-        <v>2866.09759726723</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X14" t="n">
-        <v>2824.323010322666</v>
+        <v>2044.374588592646</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
         <v>1735.608663915319</v>
@@ -5469,19 +5469,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C17" t="n">
         <v>1636.624422581789</v>
@@ -5506,13 +5506,13 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
@@ -5524,43 +5524,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883008</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W17" t="n">
-        <v>3072.075344883008</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1794.299215532023</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1505.196348657667</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1250.51186045178</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.51186045178</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>741.7508393439798</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1944.904841306683</v>
+        <v>1661.138951213862</v>
       </c>
       <c r="C20" t="n">
-        <v>1575.942324366272</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3002.202142181448</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2671.139254837878</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2318.370599567763</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X20" t="n">
-        <v>1944.904841306683</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y20" t="n">
-        <v>1944.904841306683</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1626.910682069347</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696239</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.8553933260938</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.06112435253</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C23" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -5980,61 +5980,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6180,19 +6180,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W25" t="n">
-        <v>1081.575677523874</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.575677523874</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y25" t="n">
-        <v>860.7830983803434</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1548.393281286113</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C26" t="n">
-        <v>1179.430764345701</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D26" t="n">
-        <v>821.1650657389509</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>821.1650657389509</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2698.598211587127</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>2325.132453326047</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y26" t="n">
-        <v>1934.993121350235</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>906.604870307395</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>737.6686873794881</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>587.5520479671524</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>439.6389543847592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>292.7490068868489</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>125.0461702615678</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1424.011591242373</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1424.011591242373</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1134.594421205412</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>906.604870307395</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.604870307395</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1647.321240915451</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
         <v>481.5845665871869</v>
@@ -6475,13 +6475,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6499,16 +6499,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2382.341170533244</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.5121164321834</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1720.382428707927</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260938</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1381.278680221567</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C32" t="n">
-        <v>1012.316163281155</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D32" t="n">
-        <v>1012.316163281155</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E32" t="n">
-        <v>626.5279106829107</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
-        <v>215.5420058933032</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>215.5420058933032</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3295.568144309334</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3295.568144309334</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>3042.03766758317</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2710.974780239599</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.48361052258</v>
+        <v>2358.206124969485</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.0178522615</v>
+        <v>1984.740366708405</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285688</v>
+        <v>1594.601034732593</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>680.3679798527295</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C34" t="n">
-        <v>511.4317969248226</v>
+        <v>182.143086683856</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3151575124868</v>
+        <v>182.143086683856</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>182.143086683856</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>182.143086683856</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V34" t="n">
-        <v>1446.505797040963</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.088627004002</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X34" t="n">
-        <v>929.0990761059845</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.3064969624544</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1754.744438482648</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C35" t="n">
-        <v>1385.781921542236</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D35" t="n">
-        <v>1027.516222935486</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E35" t="n">
-        <v>1027.516222935486</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F35" t="n">
-        <v>616.5303181458783</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="G35" t="n">
-        <v>201.4578679908747</v>
+        <v>184.2526492647289</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6973,16 +6973,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.483610522581</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X35" t="n">
-        <v>2531.483610522581</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y35" t="n">
-        <v>2141.34427854677</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7046,22 +7046,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>678.4618728343356</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>678.4618728343356</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>528.3452334219999</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>380.4321398396067</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7125,22 +7125,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1563.57695591201</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1563.57695591201</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>1308.892467706123</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W37" t="n">
-        <v>1308.892467706123</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X37" t="n">
-        <v>1080.902916808105</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y37" t="n">
-        <v>860.1103376645754</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2065.110222835252</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.14770589484</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>3215.315153136265</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2841.849394875185</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>2451.710062899373</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>701.1808689801002</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C40" t="n">
-        <v>532.2446860521933</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D40" t="n">
-        <v>382.1280466398575</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574644</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1762.374944995322</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1762.374944995322</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1473.272078120965</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1218.587589915078</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>929.1704198781175</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>701.1808689801002</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y40" t="n">
-        <v>701.1808689801002</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038044</v>
+        <v>1771.418012197381</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1402.455495256969</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490882</v>
+        <v>1044.189796650219</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926375</v>
+        <v>658.4015440519743</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030299</v>
+        <v>247.4156392623667</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102166</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1846.996512931475</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1557.893646057118</v>
       </c>
       <c r="V43" t="n">
-        <v>1539.929030488741</v>
+        <v>1303.209157851231</v>
       </c>
       <c r="W43" t="n">
-        <v>1250.51186045178</v>
+        <v>1013.791987814271</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.51186045178</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1715.892666966217</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="D44" t="n">
         <v>1320.35562273557</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992584</v>
@@ -7748,25 +7748,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.4780323548192</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269123</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
         <v>66.51211643218343</v>
@@ -7839,19 +7839,19 @@
         <v>1513.842048484846</v>
       </c>
       <c r="U46" t="n">
-        <v>1480.020734571437</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1225.33624636555</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W46" t="n">
-        <v>935.9190763285891</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X46" t="n">
-        <v>935.9190763285891</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.126497185059</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30.36925650589507</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>84.94186588374839</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.36925650589563</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>84.94186588374637</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>270.3993626807263</v>
       </c>
       <c r="X2" t="n">
-        <v>346.5600491303949</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.20946678700344</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,13 +22716,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8034931298449</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22804,7 +22804,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>152.9046051351729</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>38.75636027141599</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>87.00751464246964</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>177.112027662779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.2802933728032</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>293.7579678575731</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>67.55862005349448</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23229,10 +23229,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>90.46789842021462</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>39.89042928888551</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>237.3042767662008</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>61.76674224145199</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>54.90602062260874</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>328.3742596033503</v>
+        <v>91.41113910745537</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>217.1504125601312</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>235.331335044147</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>82.87935969080439</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>87.88357004526461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.80490967364167</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>341.0035084252559</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>134.7434994650762</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>267.5329888481477</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>353.0223854144583</v>
       </c>
       <c r="C23" t="n">
-        <v>227.1771453250293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.26811680410444</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>199.6490870791046</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>71.90068435702182</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>165.443455053901</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>86.80630162323021</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>279.8643344083848</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.30204999791886</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>14.70595108940901</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>188.6451035937379</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>79.45046126133674</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.1728482433097</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987242</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>202.588400117142</v>
+        <v>178.0446368831005</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>49.2375583528929</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>217.1504125601308</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>290.3129182374914</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.26811680410444</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.49861826920244</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493155</v>
+        <v>231.827238051572</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25687,7 +25687,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0538944707208</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>154.8576191056866</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>328.3742596033503</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>252.7287374313379</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776970.4433869655</v>
+        <v>776970.4433869658</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776970.4433869655</v>
+        <v>776970.4433869657</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858592.1870774252</v>
+        <v>857006.3041941117</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858592.1870774254</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.187077425</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774253</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858592.187077425</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858592.1870774248</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774254</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858592.1870774252</v>
+        <v>858592.1870774253</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858592.1870774253</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>305971.6304943088</v>
       </c>
       <c r="C2" t="n">
+        <v>305971.6304943088</v>
+      </c>
+      <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
-      <c r="D2" t="n">
-        <v>305971.6304943085</v>
-      </c>
       <c r="E2" t="n">
-        <v>340997.0989709205</v>
+        <v>340317.4959346298</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="I2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="N2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="O2" t="n">
         <v>340997.0989709207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709204</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709207</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>178540.1976648848</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472952983</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>46629.60392417244</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503279689</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>12563.18241499341</v>
       </c>
       <c r="C4" t="n">
-        <v>12563.18241499345</v>
+        <v>12563.18241499342</v>
       </c>
       <c r="D4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029938</v>
+        <v>6831.225347237272</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029938</v>
+        <v>6720.683277029948</v>
       </c>
       <c r="G4" t="n">
         <v>6720.683277029938</v>
@@ -26447,7 +26447,7 @@
         <v>6720.683277029938</v>
       </c>
       <c r="L4" t="n">
-        <v>6720.683277029918</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="M4" t="n">
         <v>6720.683277029938</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984475</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984476</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74015.36825377261</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,25 +26490,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-919508.5706583413</v>
+        <v>-914803.8542086387</v>
       </c>
       <c r="C6" t="n">
-        <v>195243.2129175793</v>
+        <v>199947.9293672815</v>
       </c>
       <c r="D6" t="n">
-        <v>195243.2129175787</v>
+        <v>199947.9293672815</v>
       </c>
       <c r="E6" t="n">
-        <v>74420.9060172454</v>
+        <v>80579.68772374754</v>
       </c>
       <c r="F6" t="n">
-        <v>256493.8858344364</v>
+        <v>256173.4457297384</v>
       </c>
       <c r="G6" t="n">
-        <v>256493.8858344361</v>
+        <v>259622.4562026912</v>
       </c>
       <c r="H6" t="n">
-        <v>256493.8858344362</v>
+        <v>259622.4562026909</v>
       </c>
       <c r="I6" t="n">
-        <v>256493.8858344363</v>
+        <v>259622.4562026913</v>
       </c>
       <c r="J6" t="n">
-        <v>88888.70802445378</v>
+        <v>92017.27839270851</v>
       </c>
       <c r="K6" t="n">
-        <v>256493.8858344363</v>
+        <v>259622.4562026911</v>
       </c>
       <c r="L6" t="n">
-        <v>256493.8858344362</v>
+        <v>259622.4562026911</v>
       </c>
       <c r="M6" t="n">
-        <v>208941.6200410213</v>
+        <v>212992.8522785187</v>
       </c>
       <c r="N6" t="n">
-        <v>256493.8858344363</v>
+        <v>258715.6296523632</v>
       </c>
       <c r="O6" t="n">
-        <v>256493.8858344361</v>
+        <v>259622.4562026912</v>
       </c>
       <c r="P6" t="n">
-        <v>256493.8858344362</v>
+        <v>259622.4562026913</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593299</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757593</v>
+        <v>152.6905150447473</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>187.114187268954</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>187.1141872689541</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>187.114187268954</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905542</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560636</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378504</v>
+        <v>328.0496171437454</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820407</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235324</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225055</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5293621272331</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>365.7939385020188</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313202</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>201.422588214601</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
